--- a/tests/data/nbt_3102/nbt.3102-S4_GeneIDs.xlsx
+++ b/tests/data/nbt_3102/nbt.3102-S4_GeneIDs.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\note2\Data\git\goatools\tests\data\nbt_3102\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1219,8 +1224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1278,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1319,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1351,9 +1364,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1385,6 +1416,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1560,23 +1609,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <v>100033452</v>
+      </c>
       <c r="C1" s="1">
-        <v>1.56738e-09</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1.56738E-9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1584,10 +1642,10 @@
         <v>18746</v>
       </c>
       <c r="C2" s="1">
-        <v>2.227785e-09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.2277849999999999E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1595,10 +1653,10 @@
         <v>13806</v>
       </c>
       <c r="C3" s="1">
-        <v>7.243245e-09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7.2432450000000003E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1606,10 +1664,10 @@
         <v>18301</v>
       </c>
       <c r="C4" s="1">
-        <v>8.307273e-09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8.3072730000000005E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1617,10 +1675,10 @@
         <v>56040</v>
       </c>
       <c r="C5" s="1">
-        <v>1.43208e-08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.43208E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1628,10 +1686,10 @@
         <v>12631</v>
       </c>
       <c r="C6" s="1">
-        <v>4.185204e-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.1852040000000003E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1639,10 +1697,10 @@
         <v>11837</v>
       </c>
       <c r="C7" s="1">
-        <v>4.185204e-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.1852040000000003E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1650,10 +1708,10 @@
         <v>18655</v>
       </c>
       <c r="C8" s="1">
-        <v>4.471981e-08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.4719809999999998E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1661,10 +1719,10 @@
         <v>22121</v>
       </c>
       <c r="C9" s="1">
-        <v>4.471981e-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4.4719809999999998E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1672,10 +1730,10 @@
         <v>76846</v>
       </c>
       <c r="C10" s="1">
-        <v>4.778076e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4.7780759999999999E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1683,10 +1741,10 @@
         <v>19951</v>
       </c>
       <c r="C11" s="1">
-        <v>4.778076e-08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4.7780759999999999E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1694,10 +1752,10 @@
         <v>433182</v>
       </c>
       <c r="C12" s="1">
-        <v>5.104587e-08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>5.1045869999999998E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1705,19 +1763,21 @@
         <v>67945</v>
       </c>
       <c r="C13" s="1">
-        <v>6.643856e-08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>6.6438559999999996E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>100042823</v>
+      </c>
       <c r="C14" s="1">
-        <v>6.643856e-08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>6.6438559999999996E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1725,10 +1785,10 @@
         <v>67945</v>
       </c>
       <c r="C15" s="1">
-        <v>6.643856e-08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>6.6438559999999996E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1736,28 +1796,32 @@
         <v>11674</v>
       </c>
       <c r="C16" s="1">
-        <v>8.635198e-08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>8.6351979999999998E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>667618</v>
+      </c>
       <c r="C17" s="1">
-        <v>8.635198e-08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>8.6351979999999998E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>100043000</v>
+      </c>
       <c r="C18" s="1">
-        <v>8.635198e-08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>8.6351979999999998E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1765,37 +1829,43 @@
         <v>16828</v>
       </c>
       <c r="C19" s="1">
-        <v>9.839396e-08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>9.8393960000000001E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>103324</v>
+      </c>
       <c r="C20" s="1">
-        <v>9.839396e-08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>9.8393960000000001E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>628060</v>
+      </c>
       <c r="C21" s="1">
-        <v>1.050176e-07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1.050176E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>674597</v>
+      </c>
       <c r="C22" s="1">
-        <v>1.195999e-07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1.1959989999999999E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1803,10 +1873,10 @@
         <v>13629</v>
       </c>
       <c r="C23" s="1">
-        <v>1.652872e-07</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1.652872E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,10 +1884,10 @@
         <v>12215</v>
       </c>
       <c r="C24" s="1">
-        <v>1.762903e-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1.762903E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1825,10 +1895,10 @@
         <v>270106</v>
       </c>
       <c r="C25" s="1">
-        <v>2.004888e-07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>2.0048880000000001E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1836,10 +1906,10 @@
         <v>227929</v>
       </c>
       <c r="C26" s="1">
-        <v>2.004888e-07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>2.0048880000000001E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1847,10 +1917,10 @@
         <v>20103</v>
       </c>
       <c r="C27" s="1">
-        <v>3.794207e-07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>3.7942069999999999E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1858,10 +1928,10 @@
         <v>11465</v>
       </c>
       <c r="C28" s="1">
-        <v>3.794207e-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>3.7942069999999999E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1869,10 +1939,10 @@
         <v>20345</v>
       </c>
       <c r="C29" s="1">
-        <v>6.280767e-07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>6.2807670000000004E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1880,10 +1950,10 @@
         <v>14964</v>
       </c>
       <c r="C30" s="1">
-        <v>6.686566e-07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>6.6865659999999996E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1891,19 +1961,21 @@
         <v>67963</v>
       </c>
       <c r="C31" s="1">
-        <v>7.117972e-07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>7.1179720000000002E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>100040970</v>
+      </c>
       <c r="C32" s="1">
-        <v>7.117972e-07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>7.1179720000000002E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1911,10 +1983,10 @@
         <v>14694</v>
       </c>
       <c r="C33" s="1">
-        <v>8.581965e-07</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>8.581965E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1922,10 +1994,10 @@
         <v>14462</v>
       </c>
       <c r="C34" s="1">
-        <v>1.033894e-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1.033894E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1933,10 +2005,10 @@
         <v>18826</v>
       </c>
       <c r="C35" s="1">
-        <v>1.033894e-06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.033894E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1944,10 +2016,10 @@
         <v>67115</v>
       </c>
       <c r="C36" s="1">
-        <v>1.033894e-06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>1.033894E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1955,10 +2027,10 @@
         <v>67891</v>
       </c>
       <c r="C37" s="1">
-        <v>1.033894e-06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>1.033894E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1966,10 +2038,10 @@
         <v>19899</v>
       </c>
       <c r="C38" s="1">
-        <v>1.033894e-06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1.033894E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1977,10 +2049,10 @@
         <v>16898</v>
       </c>
       <c r="C39" s="1">
-        <v>1.323724e-06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.3237239999999999E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1988,10 +2060,10 @@
         <v>22352</v>
       </c>
       <c r="C40" s="1">
-        <v>1.591808e-06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.591808E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1999,10 +2071,10 @@
         <v>69717</v>
       </c>
       <c r="C41" s="1">
-        <v>1.591808e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1.591808E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2010,19 +2082,21 @@
         <v>11739</v>
       </c>
       <c r="C42" s="1">
-        <v>1.79927e-06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1.7992700000000001E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>10041686</v>
+      </c>
       <c r="C43" s="1">
-        <v>1.79927e-06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.7992700000000001E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2030,10 +2104,10 @@
         <v>12444</v>
       </c>
       <c r="C44" s="1">
-        <v>2.033061e-06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>2.033061E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2041,10 +2115,10 @@
         <v>27370</v>
       </c>
       <c r="C45" s="1">
-        <v>2.033061e-06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>2.033061E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2052,10 +2126,10 @@
         <v>13627</v>
       </c>
       <c r="C46" s="1">
-        <v>2.033061e-06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>2.033061E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2063,10 +2137,10 @@
         <v>276770</v>
       </c>
       <c r="C47" s="1">
-        <v>2.16083e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>2.1608300000000001E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,10 +2148,10 @@
         <v>12540</v>
       </c>
       <c r="C48" s="1">
-        <v>2.296429e-06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>2.2964289999999999E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2085,10 +2159,10 @@
         <v>16792</v>
       </c>
       <c r="C49" s="1">
-        <v>2.296429e-06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>2.2964289999999999E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2096,19 +2170,21 @@
         <v>27207</v>
       </c>
       <c r="C50" s="1">
-        <v>2.593009e-06</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>2.593009E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <v>100039940</v>
+      </c>
       <c r="C51" s="1">
-        <v>2.926869e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>2.9268690000000001E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2116,19 +2192,21 @@
         <v>14972</v>
       </c>
       <c r="C52" s="1">
-        <v>2.926869e-06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>2.9268690000000001E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1">
+        <v>100043295</v>
+      </c>
       <c r="C53" s="1">
-        <v>2.926869e-06</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>2.9268690000000001E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2136,10 +2214,10 @@
         <v>12177</v>
       </c>
       <c r="C54" s="1">
-        <v>3.109183e-06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>3.109183E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2147,10 +2225,10 @@
         <v>70186</v>
       </c>
       <c r="C55" s="1">
-        <v>3.302564e-06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>3.3025639999999998E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,10 +2236,10 @@
         <v>22388</v>
       </c>
       <c r="C56" s="1">
-        <v>3.302564e-06</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>3.3025639999999998E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2169,10 +2247,10 @@
         <v>12500</v>
       </c>
       <c r="C57" s="1">
-        <v>3.302564e-06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>3.3025639999999998E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2180,10 +2258,10 @@
         <v>12313</v>
       </c>
       <c r="C58" s="1">
-        <v>3.725182e-06</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>3.7251819999999999E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2191,10 +2269,10 @@
         <v>11461</v>
       </c>
       <c r="C59" s="1">
-        <v>3.955841e-06</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>3.955841E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2202,10 +2280,10 @@
         <v>11749</v>
       </c>
       <c r="C60" s="1">
-        <v>4.200416e-06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>4.2004160000000001E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2213,10 +2291,10 @@
         <v>27050</v>
       </c>
       <c r="C61" s="1">
-        <v>4.200416e-06</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>4.2004160000000001E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,10 +2302,10 @@
         <v>107702</v>
       </c>
       <c r="C62" s="1">
-        <v>4.200416e-06</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>4.2004160000000001E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2235,10 +2313,10 @@
         <v>76808</v>
       </c>
       <c r="C63" s="1">
-        <v>4.200416e-06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>4.2004160000000001E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2246,10 +2324,10 @@
         <v>16190</v>
       </c>
       <c r="C64" s="1">
-        <v>4.459723e-06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>4.4597230000000003E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2257,10 +2335,10 @@
         <v>19354</v>
       </c>
       <c r="C65" s="1">
-        <v>4.459723e-06</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>4.4597230000000003E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2268,10 +2346,10 @@
         <v>76709</v>
       </c>
       <c r="C66" s="1">
-        <v>4.734625e-06</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>4.7346249999999996E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2279,10 +2357,10 @@
         <v>19988</v>
       </c>
       <c r="C67" s="1">
-        <v>4.734625e-06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>4.7346249999999996E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2290,10 +2368,10 @@
         <v>66940</v>
       </c>
       <c r="C68" s="1">
-        <v>5.026035e-06</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>5.0260349999999997E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2301,10 +2379,10 @@
         <v>14751</v>
       </c>
       <c r="C69" s="1">
-        <v>5.334915e-06</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>5.3349149999999997E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2312,10 +2390,10 @@
         <v>67427</v>
       </c>
       <c r="C70" s="1">
-        <v>5.662283e-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>5.6622830000000001E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2323,10 +2401,10 @@
         <v>17319</v>
       </c>
       <c r="C71" s="1">
-        <v>5.662283e-06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>5.6622830000000001E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2334,10 +2412,10 @@
         <v>68193</v>
       </c>
       <c r="C72" s="1">
-        <v>6.009216e-06</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>6.0092159999999996E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2345,10 +2423,10 @@
         <v>18643</v>
       </c>
       <c r="C73" s="1">
-        <v>6.37685e-06</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>6.3768499999999998E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2356,10 +2434,10 @@
         <v>12575</v>
       </c>
       <c r="C74" s="1">
-        <v>6.37685e-06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>6.3768499999999998E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2367,10 +2445,10 @@
         <v>12445</v>
       </c>
       <c r="C75" s="1">
-        <v>6.766386e-06</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>6.7663860000000002E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2378,19 +2456,21 @@
         <v>16184</v>
       </c>
       <c r="C76" s="1">
-        <v>7.179091e-06</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>7.179091E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1">
+        <v>621054</v>
+      </c>
       <c r="C77" s="1">
-        <v>7.179091e-06</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>7.179091E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2398,10 +2478,10 @@
         <v>20044</v>
       </c>
       <c r="C78" s="1">
-        <v>8.569992e-06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>8.5699920000000007E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2409,10 +2489,10 @@
         <v>21991</v>
       </c>
       <c r="C79" s="1">
-        <v>9.639736e-06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>9.6397360000000004E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2420,10 +2500,10 @@
         <v>21936</v>
       </c>
       <c r="C80" s="1">
-        <v>9.639736e-06</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>9.6397360000000004E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2431,10 +2511,10 @@
         <v>218490</v>
       </c>
       <c r="C81" s="1">
-        <v>1.083923e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>1.083923E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2442,10 +2522,10 @@
         <v>66151</v>
       </c>
       <c r="C82" s="1">
-        <v>1.083923e-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>1.083923E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2453,10 +2533,10 @@
         <v>15516</v>
       </c>
       <c r="C83" s="1">
-        <v>1.149234e-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>1.1492339999999999E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2464,10 +2544,10 @@
         <v>78330</v>
       </c>
       <c r="C84" s="1">
-        <v>1.149234e-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>1.1492339999999999E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2475,10 +2555,10 @@
         <v>12368</v>
       </c>
       <c r="C85" s="1">
-        <v>1.149234e-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>1.1492339999999999E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2486,10 +2566,10 @@
         <v>20088</v>
       </c>
       <c r="C86" s="1">
-        <v>1.218374e-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>1.2183739999999999E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2497,10 +2577,10 @@
         <v>100034726</v>
       </c>
       <c r="C87" s="1">
-        <v>1.218374e-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>1.2183739999999999E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2508,10 +2588,10 @@
         <v>20085</v>
       </c>
       <c r="C88" s="1">
-        <v>1.369025e-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>1.369025E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2519,10 +2599,10 @@
         <v>50794</v>
       </c>
       <c r="C89" s="1">
-        <v>1.451008e-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>1.4510080000000001E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2530,10 +2610,10 @@
         <v>67097</v>
       </c>
       <c r="C90" s="1">
-        <v>1.537768e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>1.5377679999999999E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2541,10 +2621,10 @@
         <v>12502</v>
       </c>
       <c r="C91" s="1">
-        <v>1.629573e-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>1.6295729999999999E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2552,10 +2632,10 @@
         <v>110213</v>
       </c>
       <c r="C92" s="1">
-        <v>1.629573e-05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>1.6295729999999999E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2563,10 +2643,10 @@
         <v>27176</v>
       </c>
       <c r="C93" s="1">
-        <v>1.726708e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>1.7267080000000001E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2574,10 +2654,10 @@
         <v>20115</v>
       </c>
       <c r="C94" s="1">
-        <v>1.938188e-05</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>1.938188E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2585,10 +2665,10 @@
         <v>12481</v>
       </c>
       <c r="C95" s="1">
-        <v>2.053182e-05</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>2.053182E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2596,10 +2676,10 @@
         <v>19989</v>
       </c>
       <c r="C96" s="1">
-        <v>2.053182e-05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>2.053182E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2607,10 +2687,10 @@
         <v>19244</v>
       </c>
       <c r="C97" s="1">
-        <v>2.303444e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>2.303444E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2618,10 +2698,10 @@
         <v>20102</v>
       </c>
       <c r="C98" s="1">
-        <v>2.303444e-05</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>2.303444E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2629,10 +2709,10 @@
         <v>12861</v>
       </c>
       <c r="C99" s="1">
-        <v>2.303444e-05</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>2.303444E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2640,19 +2720,21 @@
         <v>12857</v>
       </c>
       <c r="C100" s="1">
-        <v>2.583309e-05</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>2.5833090000000001E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1">
+        <v>218963</v>
+      </c>
       <c r="C101" s="1">
-        <v>2.583309e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>2.5833090000000001E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -2660,10 +2742,10 @@
         <v>12721</v>
       </c>
       <c r="C102" s="1">
-        <v>2.735389e-05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>2.7353889999999998E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -2671,10 +2753,10 @@
         <v>12010</v>
       </c>
       <c r="C103" s="1">
-        <v>2.735389e-05</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>2.7353889999999998E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -2682,10 +2764,10 @@
         <v>56421</v>
       </c>
       <c r="C104" s="1">
-        <v>2.89617e-05</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>2.8961700000000001E-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -2693,10 +2775,10 @@
         <v>68436</v>
       </c>
       <c r="C105" s="1">
-        <v>2.89617e-05</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>2.8961700000000001E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -2704,10 +2786,10 @@
         <v>54709</v>
       </c>
       <c r="C106" s="1">
-        <v>3.066135e-05</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>3.0661350000000001E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -2715,10 +2797,10 @@
         <v>14319</v>
       </c>
       <c r="C107" s="1">
-        <v>3.245791e-05</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>3.245791E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -2726,10 +2808,10 @@
         <v>108101</v>
       </c>
       <c r="C108" s="1">
-        <v>3.435676e-05</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>3.435676E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -2737,10 +2819,10 @@
         <v>22187</v>
       </c>
       <c r="C109" s="1">
-        <v>3.636352e-05</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>3.636352E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -2748,10 +2830,10 @@
         <v>21942</v>
       </c>
       <c r="C110" s="1">
-        <v>3.636352e-05</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>3.636352E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2759,10 +2841,10 @@
         <v>12571</v>
       </c>
       <c r="C111" s="1">
-        <v>3.848416e-05</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>3.8484159999999997E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -2770,10 +2852,10 @@
         <v>66494</v>
       </c>
       <c r="C112" s="1">
-        <v>4.072492e-05</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>4.0724920000000002E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2781,10 +2863,10 @@
         <v>59042</v>
       </c>
       <c r="C113" s="1">
-        <v>4.072492e-05</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>4.0724920000000002E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2792,10 +2874,10 @@
         <v>16785</v>
       </c>
       <c r="C114" s="1">
-        <v>4.559354e-05</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>4.5593539999999999E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2803,19 +2885,21 @@
         <v>53314</v>
       </c>
       <c r="C115" s="1">
-        <v>4.823566e-05</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>4.823566E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1">
+        <v>100040823</v>
+      </c>
       <c r="C116" s="1">
-        <v>4.823566e-05</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>4.823566E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -2823,10 +2907,10 @@
         <v>24109</v>
       </c>
       <c r="C117" s="1">
-        <v>5.102646e-05</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>5.1026460000000001E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2834,10 +2918,10 @@
         <v>11857</v>
       </c>
       <c r="C118" s="1">
-        <v>5.102646e-05</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>5.1026460000000001E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -2845,10 +2929,10 @@
         <v>56637</v>
       </c>
       <c r="C119" s="1">
-        <v>5.397402e-05</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>5.3974020000000003E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2856,10 +2940,10 @@
         <v>20318</v>
       </c>
       <c r="C120" s="1">
-        <v>5.397402e-05</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>5.3974020000000003E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -2867,10 +2951,10 @@
         <v>245007</v>
       </c>
       <c r="C121" s="1">
-        <v>5.397402e-05</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>5.3974020000000003E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -2878,10 +2962,10 @@
         <v>19188</v>
       </c>
       <c r="C122" s="1">
-        <v>5.397402e-05</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>5.3974020000000003E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -2889,10 +2973,10 @@
         <v>18453</v>
       </c>
       <c r="C123" s="1">
-        <v>5.70869e-05</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>5.7086899999999997E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -2900,10 +2984,10 @@
         <v>68135</v>
       </c>
       <c r="C124" s="1">
-        <v>6.384493e-05</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>6.3844930000000005E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -2911,10 +2995,10 @@
         <v>78781</v>
       </c>
       <c r="C125" s="1">
-        <v>6.384493e-05</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>6.3844930000000005E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -2922,10 +3006,10 @@
         <v>69573</v>
       </c>
       <c r="C126" s="1">
-        <v>6.750948e-05</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>6.750948E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -2933,10 +3017,10 @@
         <v>20091</v>
       </c>
       <c r="C127" s="1">
-        <v>7.137817e-05</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>7.1378170000000005E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -2944,10 +3028,10 @@
         <v>11429</v>
       </c>
       <c r="C128" s="1">
-        <v>7.977253e-05</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>7.9772530000000004E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -2955,10 +3039,10 @@
         <v>11950</v>
       </c>
       <c r="C129" s="1">
-        <v>8.912313e-05</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>8.9123130000000003E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -2966,10 +3050,10 @@
         <v>22627</v>
       </c>
       <c r="C130" s="1">
-        <v>8.912313e-05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>8.9123130000000003E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -2977,10 +3061,10 @@
         <v>109801</v>
       </c>
       <c r="C131" s="1">
-        <v>8.912313e-05</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>8.9123130000000003E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -2988,10 +3072,10 @@
         <v>65019</v>
       </c>
       <c r="C132" s="1">
-        <v>8.912313e-05</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>8.9123130000000003E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -2999,10 +3083,10 @@
         <v>20054</v>
       </c>
       <c r="C133" s="1">
-        <v>9.418946e-05</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>9.4189459999999994E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3010,10 +3094,10 @@
         <v>12916</v>
       </c>
       <c r="C134" s="1">
-        <v>0.0001051751</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>1.051751E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3021,10 +3105,10 @@
         <v>267019</v>
       </c>
       <c r="C135" s="1">
-        <v>0.0001174012</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>1.174012E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3032,10 +3116,10 @@
         <v>16913</v>
       </c>
       <c r="C136" s="1">
-        <v>0.0001174012</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>1.174012E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -3043,10 +3127,10 @@
         <v>56295</v>
       </c>
       <c r="C137" s="1">
-        <v>0.0001174012</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>1.174012E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -3054,10 +3138,10 @@
         <v>15902</v>
       </c>
       <c r="C138" s="1">
-        <v>0.0001240212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>1.240212E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -3065,10 +3149,10 @@
         <v>13011</v>
       </c>
       <c r="C139" s="1">
-        <v>0.0001240212</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>1.240212E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -3076,10 +3160,10 @@
         <v>13135</v>
       </c>
       <c r="C140" s="1">
-        <v>0.000138366</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>1.3836600000000001E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -3087,10 +3171,10 @@
         <v>67186</v>
       </c>
       <c r="C141" s="1">
-        <v>0.000138366</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>1.3836600000000001E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -3098,10 +3182,10 @@
         <v>19073</v>
       </c>
       <c r="C142" s="1">
-        <v>0.00014613</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>1.4613000000000001E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -3109,10 +3193,10 @@
         <v>19170</v>
       </c>
       <c r="C143" s="1">
-        <v>0.0001543164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>1.5431639999999999E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -3120,10 +3204,10 @@
         <v>26445</v>
       </c>
       <c r="C144" s="1">
-        <v>0.0001629471</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>1.6294709999999999E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -3131,10 +3215,10 @@
         <v>17698</v>
       </c>
       <c r="C145" s="1">
-        <v>0.0001629471</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>1.6294709999999999E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -3142,10 +3226,10 @@
         <v>75617</v>
       </c>
       <c r="C146" s="1">
-        <v>0.0001720456</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>1.720456E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -3153,10 +3237,10 @@
         <v>59069</v>
       </c>
       <c r="C147" s="1">
-        <v>0.0001720456</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>1.720456E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -3164,10 +3248,10 @@
         <v>16468</v>
       </c>
       <c r="C148" s="1">
-        <v>0.0001720456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>1.720456E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -3175,10 +3259,10 @@
         <v>15007</v>
       </c>
       <c r="C149" s="1">
-        <v>0.0001720456</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>1.720456E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -3186,10 +3270,10 @@
         <v>12176</v>
       </c>
       <c r="C150" s="1">
-        <v>0.0001720456</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>1.720456E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -3197,10 +3281,10 @@
         <v>108124</v>
       </c>
       <c r="C151" s="1">
-        <v>0.0001816365</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>1.816365E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -3208,19 +3292,21 @@
         <v>58810</v>
       </c>
       <c r="C152" s="1">
-        <v>0.0001816365</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>1.816365E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1">
+        <v>14337</v>
+      </c>
       <c r="C153" s="1">
-        <v>0.0001816365</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>1.816365E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -3228,10 +3314,10 @@
         <v>71962</v>
       </c>
       <c r="C154" s="1">
-        <v>0.0001917453</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>1.917453E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -3239,10 +3325,10 @@
         <v>20250</v>
       </c>
       <c r="C155" s="1">
-        <v>0.0001917453</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>1.917453E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -3250,10 +3336,10 @@
         <v>14775</v>
       </c>
       <c r="C156" s="1">
-        <v>0.0002023991</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>2.023991E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -3261,10 +3347,10 @@
         <v>57320</v>
       </c>
       <c r="C157" s="1">
-        <v>0.0002136264</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>2.1362639999999999E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -3272,10 +3358,10 @@
         <v>12487</v>
       </c>
       <c r="C158" s="1">
-        <v>0.0002254568</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>2.2545679999999999E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -3283,10 +3369,10 @@
         <v>75547</v>
       </c>
       <c r="C159" s="1">
-        <v>0.0002254568</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>2.2545679999999999E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -3294,10 +3380,10 @@
         <v>51798</v>
       </c>
       <c r="C160" s="1">
-        <v>0.0002510542</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>2.5105420000000003E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3305,10 +3391,10 @@
         <v>110454</v>
       </c>
       <c r="C161" s="1">
-        <v>0.0002510542</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>2.5105420000000003E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3316,10 +3402,10 @@
         <v>69536</v>
       </c>
       <c r="C162" s="1">
-        <v>0.0002648884</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>2.6488839999999999E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3327,10 +3413,10 @@
         <v>68949</v>
       </c>
       <c r="C163" s="1">
-        <v>0.0002948092</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>2.948092E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3338,10 +3424,10 @@
         <v>26931</v>
       </c>
       <c r="C164" s="1">
-        <v>0.0003109736</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>3.1097360000000002E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3349,10 +3435,10 @@
         <v>19241</v>
       </c>
       <c r="C165" s="1">
-        <v>0.0003109736</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>3.1097360000000002E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3360,10 +3446,10 @@
         <v>22333</v>
       </c>
       <c r="C166" s="1">
-        <v>0.0003279958</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>3.2799579999999998E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3371,10 +3457,10 @@
         <v>14225</v>
       </c>
       <c r="C167" s="1">
-        <v>0.0003279958</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>3.2799579999999998E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3382,10 +3468,10 @@
         <v>13194</v>
       </c>
       <c r="C168" s="1">
-        <v>0.0003459199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>3.4591990000000001E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3393,10 +3479,10 @@
         <v>20194</v>
       </c>
       <c r="C169" s="1">
-        <v>0.0003459199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>3.4591990000000001E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3404,10 +3490,10 @@
         <v>22272</v>
       </c>
       <c r="C170" s="1">
-        <v>0.0003459199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>3.4591990000000001E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3415,10 +3501,10 @@
         <v>11992</v>
       </c>
       <c r="C171" s="1">
-        <v>0.0003647918</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>3.647918E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3426,10 +3512,10 @@
         <v>20463</v>
       </c>
       <c r="C172" s="1">
-        <v>0.0003647918</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>3.647918E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -3437,10 +3523,10 @@
         <v>14325</v>
       </c>
       <c r="C173" s="1">
-        <v>0.0003647918</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>3.647918E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3448,10 +3534,10 @@
         <v>16205</v>
       </c>
       <c r="C174" s="1">
-        <v>0.0003647918</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>3.647918E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3459,10 +3545,10 @@
         <v>384009</v>
       </c>
       <c r="C175" s="1">
-        <v>0.0003846599</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>3.8465990000000001E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3470,10 +3556,10 @@
         <v>67938</v>
       </c>
       <c r="C176" s="1">
-        <v>0.0004507612</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>4.507612E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3481,10 +3567,10 @@
         <v>12508</v>
       </c>
       <c r="C177" s="1">
-        <v>0.0004751468</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>4.7514680000000002E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -3492,10 +3578,10 @@
         <v>74117</v>
       </c>
       <c r="C178" s="1">
-        <v>0.0005008082</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>5.0080820000000001E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3503,10 +3589,10 @@
         <v>26961</v>
       </c>
       <c r="C179" s="1">
-        <v>0.0005861066</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>5.8610659999999996E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3514,10 +3600,10 @@
         <v>26987</v>
       </c>
       <c r="C180" s="1">
-        <v>0.0005861066</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>5.8610659999999996E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3525,10 +3611,10 @@
         <v>21376</v>
       </c>
       <c r="C181" s="1">
-        <v>0.0006175465</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>6.1754650000000002E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3536,10 +3622,10 @@
         <v>12330</v>
       </c>
       <c r="C182" s="1">
-        <v>0.0006175465</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>6.1754650000000002E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -3547,10 +3633,10 @@
         <v>53421</v>
       </c>
       <c r="C183" s="1">
-        <v>0.0006175465</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>6.1754650000000002E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -3558,10 +3644,10 @@
         <v>20409</v>
       </c>
       <c r="C184" s="1">
-        <v>0.0006853984</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>6.8539839999999996E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -3569,10 +3655,10 @@
         <v>56451</v>
       </c>
       <c r="C185" s="1">
-        <v>0.0006853984</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>6.8539839999999996E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -3580,10 +3666,10 @@
         <v>20068</v>
       </c>
       <c r="C186" s="1">
-        <v>0.0006853984</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>6.8539839999999996E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -3591,10 +3677,10 @@
         <v>12331</v>
       </c>
       <c r="C187" s="1">
-        <v>0.0007604418</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>7.6044179999999999E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -3602,10 +3688,10 @@
         <v>20652</v>
       </c>
       <c r="C188" s="1">
-        <v>0.0008008865</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>8.0088649999999996E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -3613,10 +3699,10 @@
         <v>76199</v>
       </c>
       <c r="C189" s="1">
-        <v>0.0008434094</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>8.4340939999999996E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -3624,10 +3710,10 @@
         <v>20018</v>
       </c>
       <c r="C190" s="1">
-        <v>0.0008434094</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>8.4340939999999996E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -3635,10 +3721,10 @@
         <v>12306</v>
       </c>
       <c r="C191" s="1">
-        <v>0.0008434094</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>8.4340939999999996E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -3646,10 +3732,10 @@
         <v>192662</v>
       </c>
       <c r="C192" s="1">
-        <v>0.0009844987</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>9.8449869999999991E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -3657,10 +3743,10 @@
         <v>17938</v>
       </c>
       <c r="C193" s="1">
-        <v>0.0009844987</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>9.8449869999999991E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -3668,10 +3754,10 @@
         <v>67955</v>
       </c>
       <c r="C194" s="1">
-        <v>0.001036411</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>1.0364110000000001E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -3679,10 +3765,10 @@
         <v>69029</v>
       </c>
       <c r="C195" s="1">
-        <v>0.001036411</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>1.0364110000000001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -3690,10 +3776,10 @@
         <v>21894</v>
       </c>
       <c r="C196" s="1">
-        <v>0.001036411</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>1.0364110000000001E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -3701,10 +3787,10 @@
         <v>66043</v>
       </c>
       <c r="C197" s="1">
-        <v>0.001090967</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>1.090967E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -3712,10 +3798,10 @@
         <v>15388</v>
       </c>
       <c r="C198" s="1">
-        <v>0.001090967</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>1.090967E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -3723,10 +3809,10 @@
         <v>22163</v>
       </c>
       <c r="C199" s="1">
-        <v>0.001090967</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>1.090967E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -3734,10 +3820,10 @@
         <v>11637</v>
       </c>
       <c r="C200" s="1">
-        <v>0.001148295</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>1.1482949999999999E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -3745,10 +3831,10 @@
         <v>76614</v>
       </c>
       <c r="C201" s="1">
-        <v>0.001208531</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>1.2085310000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -3756,10 +3842,10 @@
         <v>240641</v>
       </c>
       <c r="C202" s="1">
-        <v>0.001271817</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>1.271817E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -3767,10 +3853,10 @@
         <v>12226</v>
       </c>
       <c r="C203" s="1">
-        <v>0.001271817</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>1.271817E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -3778,10 +3864,10 @@
         <v>226757</v>
       </c>
       <c r="C204" s="1">
-        <v>0.001271817</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>1.271817E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -3789,10 +3875,10 @@
         <v>66855</v>
       </c>
       <c r="C205" s="1">
-        <v>0.001338301</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>1.3383010000000001E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -3800,10 +3886,10 @@
         <v>20848</v>
       </c>
       <c r="C206" s="1">
-        <v>0.001338301</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>1.3383010000000001E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -3811,10 +3897,10 @@
         <v>16186</v>
       </c>
       <c r="C207" s="1">
-        <v>0.001408138</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>1.408138E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -3822,10 +3908,10 @@
         <v>13685</v>
       </c>
       <c r="C208" s="1">
-        <v>0.001408138</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>1.408138E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
@@ -3833,10 +3919,10 @@
         <v>69745</v>
       </c>
       <c r="C209" s="1">
-        <v>0.001481492</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>1.4814920000000001E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
@@ -3844,10 +3930,10 @@
         <v>104130</v>
       </c>
       <c r="C210" s="1">
-        <v>0.001558532</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>1.5585320000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -3855,10 +3941,10 @@
         <v>231932</v>
       </c>
       <c r="C211" s="1">
-        <v>0.001558532</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>1.5585320000000001E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -3866,10 +3952,10 @@
         <v>11840</v>
       </c>
       <c r="C212" s="1">
-        <v>0.001558532</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>1.5585320000000001E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -3877,10 +3963,10 @@
         <v>59022</v>
       </c>
       <c r="C213" s="1">
-        <v>0.001639436</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>1.639436E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -3888,10 +3974,10 @@
         <v>27357</v>
       </c>
       <c r="C214" s="1">
-        <v>0.001639436</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>1.639436E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -3899,10 +3985,10 @@
         <v>71817</v>
       </c>
       <c r="C215" s="1">
-        <v>0.001639436</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>1.639436E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -3910,10 +3996,10 @@
         <v>67771</v>
       </c>
       <c r="C216" s="1">
-        <v>0.001724392</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>1.7243919999999999E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -3921,10 +4007,10 @@
         <v>13057</v>
       </c>
       <c r="C217" s="1">
-        <v>0.001813592</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>1.8135919999999999E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -3932,10 +4018,10 @@
         <v>15277</v>
       </c>
       <c r="C218" s="1">
-        <v>0.001907242</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>1.907242E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
@@ -3943,10 +4029,10 @@
         <v>71853</v>
       </c>
       <c r="C219" s="1">
-        <v>0.001907242</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>1.907242E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
@@ -3954,10 +4040,10 @@
         <v>14569</v>
       </c>
       <c r="C220" s="1">
-        <v>0.002005555</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>2.005555E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -3965,10 +4051,10 @@
         <v>12399</v>
       </c>
       <c r="C221" s="1">
-        <v>0.002005555</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>2.005555E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -3976,10 +4062,10 @@
         <v>227290</v>
       </c>
       <c r="C222" s="1">
-        <v>0.002108753</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>2.1087530000000001E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -3987,10 +4073,10 @@
         <v>110611</v>
       </c>
       <c r="C223" s="1">
-        <v>0.002108753</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>2.1087530000000001E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -3998,10 +4084,10 @@
         <v>12236</v>
       </c>
       <c r="C224" s="1">
-        <v>0.002108753</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>2.1087530000000001E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -4009,10 +4095,10 @@
         <v>19045</v>
       </c>
       <c r="C225" s="1">
-        <v>0.002108753</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>2.1087530000000001E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -4020,10 +4106,10 @@
         <v>234135</v>
       </c>
       <c r="C226" s="1">
-        <v>0.002108753</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>2.1087530000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -4031,10 +4117,10 @@
         <v>14635</v>
       </c>
       <c r="C227" s="1">
-        <v>0.00221707</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>2.2170699999999998E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -4042,10 +4128,10 @@
         <v>67268</v>
       </c>
       <c r="C228" s="1">
-        <v>0.00221707</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>2.2170699999999998E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -4053,10 +4139,10 @@
         <v>11867</v>
       </c>
       <c r="C229" s="1">
-        <v>0.002450044</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>2.4500440000000002E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -4064,10 +4150,10 @@
         <v>18518</v>
       </c>
       <c r="C230" s="1">
-        <v>0.002575224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>2.5752240000000001E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -4075,10 +4161,10 @@
         <v>68292</v>
       </c>
       <c r="C231" s="1">
-        <v>0.002575224</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>2.5752240000000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -4086,10 +4172,10 @@
         <v>68953</v>
       </c>
       <c r="C232" s="1">
-        <v>0.002575224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>2.5752240000000001E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -4097,10 +4183,10 @@
         <v>108735</v>
       </c>
       <c r="C233" s="1">
-        <v>0.002575224</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>2.5752240000000001E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -4108,10 +4194,10 @@
         <v>12317</v>
       </c>
       <c r="C234" s="1">
-        <v>0.002706565</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>2.7065650000000002E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -4119,10 +4205,10 @@
         <v>14674</v>
       </c>
       <c r="C235" s="1">
-        <v>0.002706565</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>2.7065650000000002E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -4130,10 +4216,10 @@
         <v>13010</v>
       </c>
       <c r="C236" s="1">
-        <v>0.002706565</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>2.7065650000000002E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -4141,10 +4227,10 @@
         <v>72157</v>
       </c>
       <c r="C237" s="1">
-        <v>0.003140537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>3.1405370000000001E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -4152,10 +4238,10 @@
         <v>68077</v>
       </c>
       <c r="C238" s="1">
-        <v>0.003140537</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>3.1405370000000001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -4163,10 +4249,10 @@
         <v>12581</v>
       </c>
       <c r="C239" s="1">
-        <v>0.003140537</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>3.1405370000000001E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -4174,10 +4260,10 @@
         <v>11773</v>
       </c>
       <c r="C240" s="1">
-        <v>0.00329957</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>3.2995699999999999E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -4185,10 +4271,10 @@
         <v>20655</v>
       </c>
       <c r="C241" s="1">
-        <v>0.00329957</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>3.2995699999999999E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -4196,10 +4282,10 @@
         <v>15481</v>
       </c>
       <c r="C242" s="1">
-        <v>0.003466357</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>3.4663570000000002E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -4207,10 +4293,10 @@
         <v>58520</v>
       </c>
       <c r="C243" s="1">
-        <v>0.003466357</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>3.4663570000000002E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -4218,10 +4304,10 @@
         <v>83486</v>
       </c>
       <c r="C244" s="1">
-        <v>0.003466357</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>3.4663570000000002E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -4229,10 +4315,10 @@
         <v>226412</v>
       </c>
       <c r="C245" s="1">
-        <v>0.003466357</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>3.4663570000000002E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -4240,10 +4326,10 @@
         <v>20815</v>
       </c>
       <c r="C246" s="1">
-        <v>0.00364126</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>3.6412599999999999E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -4251,10 +4337,10 @@
         <v>12503</v>
       </c>
       <c r="C247" s="1">
-        <v>0.00364126</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>3.6412599999999999E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -4262,10 +4348,10 @@
         <v>56226</v>
       </c>
       <c r="C248" s="1">
-        <v>0.003824659</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>3.8246589999999998E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -4273,10 +4359,10 @@
         <v>326618</v>
       </c>
       <c r="C249" s="1">
-        <v>0.003824659</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>3.8246589999999998E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -4284,10 +4370,10 @@
         <v>69221</v>
       </c>
       <c r="C250" s="1">
-        <v>0.003824659</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>3.8246589999999998E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -4295,10 +4381,10 @@
         <v>20971</v>
       </c>
       <c r="C251" s="1">
-        <v>0.004016947</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>4.0169469999999999E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -4306,10 +4392,10 @@
         <v>66713</v>
       </c>
       <c r="C252" s="1">
-        <v>0.004016947</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>4.0169469999999999E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -4317,10 +4403,10 @@
         <v>15366</v>
       </c>
       <c r="C253" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -4328,10 +4414,10 @@
         <v>12934</v>
       </c>
       <c r="C254" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -4339,10 +4425,10 @@
         <v>19186</v>
       </c>
       <c r="C255" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -4350,10 +4436,10 @@
         <v>100041546</v>
       </c>
       <c r="C256" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -4361,10 +4447,10 @@
         <v>20230</v>
       </c>
       <c r="C257" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -4372,10 +4458,10 @@
         <v>22273</v>
       </c>
       <c r="C258" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -4383,10 +4469,10 @@
         <v>57296</v>
       </c>
       <c r="C259" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -4394,10 +4480,10 @@
         <v>78473</v>
       </c>
       <c r="C260" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -4405,10 +4491,10 @@
         <v>229663</v>
       </c>
       <c r="C261" s="1">
-        <v>0.004218539</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>4.2185390000000003E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -4416,10 +4502,10 @@
         <v>66482</v>
       </c>
       <c r="C262" s="1">
-        <v>0.004429866</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>4.4298660000000002E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -4427,10 +4513,10 @@
         <v>17979</v>
       </c>
       <c r="C263" s="1">
-        <v>0.004429866</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>4.4298660000000002E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -4438,10 +4524,10 @@
         <v>12332</v>
       </c>
       <c r="C264" s="1">
-        <v>0.004429866</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>4.4298660000000002E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -4449,10 +4535,10 @@
         <v>20742</v>
       </c>
       <c r="C265" s="1">
-        <v>0.004651378</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>4.6513780000000003E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -4460,10 +4546,10 @@
         <v>20320</v>
       </c>
       <c r="C266" s="1">
-        <v>0.004651378</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>4.6513780000000003E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -4471,10 +4557,10 @@
         <v>12520</v>
       </c>
       <c r="C267" s="1">
-        <v>0.004651378</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>4.6513780000000003E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -4482,10 +4568,10 @@
         <v>20932</v>
       </c>
       <c r="C268" s="1">
-        <v>0.004883545</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>4.8835450000000004E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -4493,10 +4579,10 @@
         <v>55949</v>
       </c>
       <c r="C269" s="1">
-        <v>0.004883545</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>4.8835450000000004E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -4504,10 +4590,10 @@
         <v>67437</v>
       </c>
       <c r="C270" s="1">
-        <v>0.004883545</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>4.8835450000000004E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -4515,10 +4601,10 @@
         <v>18578</v>
       </c>
       <c r="C271" s="1">
-        <v>0.004883545</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>4.8835450000000004E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -4526,10 +4612,10 @@
         <v>67568</v>
       </c>
       <c r="C272" s="1">
-        <v>0.005126857</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>5.1268570000000003E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -4537,10 +4623,10 @@
         <v>16852</v>
       </c>
       <c r="C273" s="1">
-        <v>0.005126857</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>5.1268570000000003E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -4548,10 +4634,10 @@
         <v>19264</v>
       </c>
       <c r="C274" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -4559,10 +4645,10 @@
         <v>13200</v>
       </c>
       <c r="C275" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -4570,10 +4656,10 @@
         <v>68592</v>
       </c>
       <c r="C276" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -4581,10 +4667,10 @@
         <v>74131</v>
       </c>
       <c r="C277" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -4592,10 +4678,10 @@
         <v>218811</v>
       </c>
       <c r="C278" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -4603,10 +4689,10 @@
         <v>66256</v>
       </c>
       <c r="C279" s="1">
-        <v>0.005648992</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>5.6489920000000002E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -4614,10 +4700,10 @@
         <v>13030</v>
       </c>
       <c r="C280" s="1">
-        <v>0.005928907</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>5.9289069999999998E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -4625,10 +4711,10 @@
         <v>21814</v>
       </c>
       <c r="C281" s="1">
-        <v>0.005928907</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>5.9289069999999998E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -4636,10 +4722,10 @@
         <v>11740</v>
       </c>
       <c r="C282" s="1">
-        <v>0.006222155</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>6.222155E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -4647,10 +4733,10 @@
         <v>320184</v>
       </c>
       <c r="C283" s="1">
-        <v>0.006222155</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>6.222155E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -4658,10 +4744,10 @@
         <v>16185</v>
       </c>
       <c r="C284" s="1">
-        <v>0.006222155</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>6.222155E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -4669,10 +4755,10 @@
         <v>70356</v>
       </c>
       <c r="C285" s="1">
-        <v>0.006529345</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>6.5293449999999998E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -4680,10 +4766,10 @@
         <v>76884</v>
       </c>
       <c r="C286" s="1">
-        <v>0.00685111</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>6.8511099999999997E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -4691,10 +4777,10 @@
         <v>16432</v>
       </c>
       <c r="C287" s="1">
-        <v>0.00685111</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>6.8511099999999997E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
@@ -4702,10 +4788,10 @@
         <v>73736</v>
       </c>
       <c r="C288" s="1">
-        <v>0.007188112</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>7.188112E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
@@ -4713,10 +4799,10 @@
         <v>15275</v>
       </c>
       <c r="C289" s="1">
-        <v>0.007541041</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>7.5410410000000001E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
@@ -4724,10 +4810,10 @@
         <v>28106</v>
       </c>
       <c r="C290" s="1">
-        <v>0.007910616</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>7.9106160000000005E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
@@ -4735,10 +4821,10 @@
         <v>66397</v>
       </c>
       <c r="C291" s="1">
-        <v>0.007910616</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>7.9106160000000005E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
@@ -4746,10 +4832,10 @@
         <v>26401</v>
       </c>
       <c r="C292" s="1">
-        <v>0.007910616</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>7.9106160000000005E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
@@ -4757,10 +4843,10 @@
         <v>73826</v>
       </c>
       <c r="C293" s="1">
-        <v>0.007910616</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>7.9106160000000005E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
@@ -4768,10 +4854,10 @@
         <v>66059</v>
       </c>
       <c r="C294" s="1">
-        <v>0.007910616</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>7.9106160000000005E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
@@ -4779,10 +4865,10 @@
         <v>22228</v>
       </c>
       <c r="C295" s="1">
-        <v>0.008297588</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>8.2975879999999998E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
@@ -4790,10 +4876,10 @@
         <v>12043</v>
       </c>
       <c r="C296" s="1">
-        <v>0.008297588</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>8.2975879999999998E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -4801,10 +4887,10 @@
         <v>26893</v>
       </c>
       <c r="C297" s="1">
-        <v>0.008702741</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>8.7027409999999999E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
@@ -4812,10 +4898,10 @@
         <v>104318</v>
       </c>
       <c r="C298" s="1">
-        <v>0.008702741</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>8.7027409999999999E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
@@ -4823,10 +4909,10 @@
         <v>383295</v>
       </c>
       <c r="C299" s="1">
-        <v>0.008702741</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>8.7027409999999999E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
@@ -4834,10 +4920,10 @@
         <v>110196</v>
       </c>
       <c r="C300" s="1">
-        <v>0.008702741</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>8.7027409999999999E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
@@ -4845,10 +4931,10 @@
         <v>13427</v>
       </c>
       <c r="C301" s="1">
-        <v>0.009126889</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>9.1268889999999991E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
@@ -4856,10 +4942,10 @@
         <v>14269</v>
       </c>
       <c r="C302" s="1">
-        <v>0.009126889</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>9.1268889999999991E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -4867,10 +4953,10 @@
         <v>54198</v>
       </c>
       <c r="C303" s="1">
-        <v>0.009570885</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>9.5708849999999995E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -4878,10 +4964,10 @@
         <v>22218</v>
       </c>
       <c r="C304" s="1">
-        <v>0.009570885</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>9.5708849999999995E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
@@ -4889,10 +4975,10 @@
         <v>11569</v>
       </c>
       <c r="C305" s="1">
-        <v>0.009570885</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>9.5708849999999995E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
@@ -4900,10 +4986,10 @@
         <v>14247</v>
       </c>
       <c r="C306" s="1">
-        <v>0.01003562</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>1.003562E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -4911,10 +4997,10 @@
         <v>114584</v>
       </c>
       <c r="C307" s="1">
-        <v>0.01103102</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>1.1031020000000001E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -4922,10 +5008,10 @@
         <v>15018</v>
       </c>
       <c r="C308" s="1">
-        <v>0.01103102</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>1.1031020000000001E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
@@ -4933,10 +5019,10 @@
         <v>109552</v>
       </c>
       <c r="C309" s="1">
-        <v>0.01156366</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>1.156366E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
@@ -4944,10 +5030,10 @@
         <v>17067</v>
       </c>
       <c r="C310" s="1">
-        <v>0.01156366</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>1.156366E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
@@ -4955,10 +5041,10 @@
         <v>14758</v>
       </c>
       <c r="C311" s="1">
-        <v>0.01270406</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>1.270406E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -4966,10 +5052,10 @@
         <v>503610</v>
       </c>
       <c r="C312" s="1">
-        <v>0.01270406</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>1.270406E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -4977,10 +5063,10 @@
         <v>23882</v>
       </c>
       <c r="C313" s="1">
-        <v>0.01331405</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>1.3314049999999999E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -4988,10 +5074,10 @@
         <v>20911</v>
       </c>
       <c r="C314" s="1">
-        <v>0.01395212</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>1.395212E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -4999,10 +5085,10 @@
         <v>16162</v>
       </c>
       <c r="C315" s="1">
-        <v>0.01395212</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>1.395212E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -5010,10 +5096,10 @@
         <v>67665</v>
       </c>
       <c r="C316" s="1">
-        <v>0.01395212</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>1.395212E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -5021,10 +5107,10 @@
         <v>93672</v>
       </c>
       <c r="C317" s="1">
-        <v>0.01395212</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>1.395212E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
@@ -5032,10 +5118,10 @@
         <v>76959</v>
       </c>
       <c r="C318" s="1">
-        <v>0.01395212</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>1.395212E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
@@ -5043,10 +5129,10 @@
         <v>20355</v>
       </c>
       <c r="C319" s="1">
-        <v>0.01461951</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>1.461951E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -5054,10 +5140,10 @@
         <v>26443</v>
       </c>
       <c r="C320" s="1">
-        <v>0.01461951</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>1.461951E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -5065,10 +5151,10 @@
         <v>66661</v>
       </c>
       <c r="C321" s="1">
-        <v>0.01531751</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>1.5317509999999999E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -5076,10 +5162,10 @@
         <v>67680</v>
       </c>
       <c r="C322" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -5087,10 +5173,10 @@
         <v>56419</v>
       </c>
       <c r="C323" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -5098,10 +5184,10 @@
         <v>12521</v>
       </c>
       <c r="C324" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -5109,10 +5195,10 @@
         <v>56786</v>
       </c>
       <c r="C325" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -5120,10 +5206,10 @@
         <v>18148</v>
       </c>
       <c r="C326" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -5131,10 +5217,10 @@
         <v>12340</v>
       </c>
       <c r="C327" s="1">
-        <v>0.01604746</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>1.604746E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -5142,10 +5228,10 @@
         <v>68991</v>
       </c>
       <c r="C328" s="1">
-        <v>0.01681075</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>1.6810749999999999E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -5153,10 +5239,10 @@
         <v>170791</v>
       </c>
       <c r="C329" s="1">
-        <v>0.01760882</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>1.7608820000000001E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -5164,10 +5250,10 @@
         <v>16453</v>
       </c>
       <c r="C330" s="1">
-        <v>0.01760882</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>1.7608820000000001E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -5175,10 +5261,10 @@
         <v>69080</v>
       </c>
       <c r="C331" s="1">
-        <v>0.01760882</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>1.7608820000000001E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -5186,10 +5272,10 @@
         <v>317757</v>
       </c>
       <c r="C332" s="1">
-        <v>0.01760882</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>1.7608820000000001E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -5197,10 +5283,10 @@
         <v>66914</v>
       </c>
       <c r="C333" s="1">
-        <v>0.01760882</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>1.7608820000000001E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -5208,10 +5294,10 @@
         <v>67036</v>
       </c>
       <c r="C334" s="1">
-        <v>0.01931545</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>1.9315450000000001E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -5219,10 +5305,10 @@
         <v>26908</v>
       </c>
       <c r="C335" s="1">
-        <v>0.01931545</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>1.9315450000000001E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -5230,10 +5316,10 @@
         <v>66366</v>
       </c>
       <c r="C336" s="1">
-        <v>0.02022721</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <v>2.0227209999999999E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -5241,10 +5327,10 @@
         <v>56426</v>
       </c>
       <c r="C337" s="1">
-        <v>0.02022721</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>2.0227209999999999E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -5252,10 +5338,10 @@
         <v>66357</v>
       </c>
       <c r="C338" s="1">
-        <v>0.02022721</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>2.0227209999999999E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -5263,10 +5349,10 @@
         <v>71148</v>
       </c>
       <c r="C339" s="1">
-        <v>0.0211802</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>2.11802E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -5274,10 +5360,10 @@
         <v>13024</v>
       </c>
       <c r="C340" s="1">
-        <v>0.0211802</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <v>2.11802E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -5285,10 +5371,10 @@
         <v>107526</v>
       </c>
       <c r="C341" s="1">
-        <v>0.0211802</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <v>2.11802E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -5296,10 +5382,10 @@
         <v>77619</v>
       </c>
       <c r="C342" s="1">
-        <v>0.0211802</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>2.11802E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -5307,10 +5393,10 @@
         <v>11946</v>
       </c>
       <c r="C343" s="1">
-        <v>0.02217617</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>2.2176169999999999E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -5318,10 +5404,10 @@
         <v>56529</v>
       </c>
       <c r="C344" s="1">
-        <v>0.02217617</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>2.2176169999999999E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -5329,10 +5415,10 @@
         <v>20333</v>
       </c>
       <c r="C345" s="1">
-        <v>0.02217617</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>2.2176169999999999E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -5340,10 +5426,10 @@
         <v>108058</v>
       </c>
       <c r="C346" s="1">
-        <v>0.02217617</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>2.2176169999999999E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -5351,10 +5437,10 @@
         <v>14961</v>
       </c>
       <c r="C347" s="1">
-        <v>0.02217617</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>2.2176169999999999E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -5362,10 +5448,10 @@
         <v>66916</v>
       </c>
       <c r="C348" s="1">
-        <v>0.02321698</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <v>2.3216980000000002E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -5373,10 +5459,10 @@
         <v>13709</v>
       </c>
       <c r="C349" s="1">
-        <v>0.02321698</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>2.3216980000000002E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -5384,10 +5470,10 @@
         <v>12326</v>
       </c>
       <c r="C350" s="1">
-        <v>0.02321698</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>2.3216980000000002E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -5395,10 +5481,10 @@
         <v>17069</v>
       </c>
       <c r="C351" s="1">
-        <v>0.02430455</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <v>2.4304550000000001E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -5406,10 +5492,10 @@
         <v>21819</v>
       </c>
       <c r="C352" s="1">
-        <v>0.02430455</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <v>2.4304550000000001E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -5417,10 +5503,10 @@
         <v>11947</v>
       </c>
       <c r="C353" s="1">
-        <v>0.02544089</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <v>2.5440890000000001E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -5428,10 +5514,10 @@
         <v>12506</v>
       </c>
       <c r="C354" s="1">
-        <v>0.02662806</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>2.6628059999999999E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -5439,10 +5525,10 @@
         <v>66358</v>
       </c>
       <c r="C355" s="1">
-        <v>0.02786824</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <v>2.7868239999999999E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -5450,10 +5536,10 @@
         <v>14827</v>
       </c>
       <c r="C356" s="1">
-        <v>0.02786824</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>2.7868239999999999E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -5461,10 +5547,10 @@
         <v>72244</v>
       </c>
       <c r="C357" s="1">
-        <v>0.02786824</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>2.7868239999999999E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -5472,10 +5558,10 @@
         <v>66395</v>
       </c>
       <c r="C358" s="1">
-        <v>0.02786824</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>2.7868239999999999E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -5483,10 +5569,10 @@
         <v>66105</v>
       </c>
       <c r="C359" s="1">
-        <v>0.02786824</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>2.7868239999999999E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -5494,10 +5580,10 @@
         <v>75909</v>
       </c>
       <c r="C360" s="1">
-        <v>0.02916367</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>2.9163669999999999E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -5505,10 +5591,10 @@
         <v>106298</v>
       </c>
       <c r="C361" s="1">
-        <v>0.02916367</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <v>2.9163669999999999E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -5516,10 +5602,10 @@
         <v>17448</v>
       </c>
       <c r="C362" s="1">
-        <v>0.03051669</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+        <v>3.0516689999999999E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -5527,10 +5613,10 @@
         <v>20024</v>
       </c>
       <c r="C363" s="1">
-        <v>0.03051669</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>3.0516689999999999E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -5538,10 +5624,10 @@
         <v>22134</v>
       </c>
       <c r="C364" s="1">
-        <v>0.03051669</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>3.0516689999999999E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -5549,10 +5635,10 @@
         <v>20527</v>
       </c>
       <c r="C365" s="1">
-        <v>0.03192975</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <v>3.192975E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -5560,10 +5646,10 @@
         <v>15441</v>
       </c>
       <c r="C366" s="1">
-        <v>0.03192975</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>3.192975E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -5571,10 +5657,10 @@
         <v>226591</v>
       </c>
       <c r="C367" s="1">
-        <v>0.03192975</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>3.192975E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -5582,10 +5668,10 @@
         <v>11676</v>
       </c>
       <c r="C368" s="1">
-        <v>0.03340537</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <v>3.3405369999999997E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -5593,10 +5679,10 @@
         <v>269582</v>
       </c>
       <c r="C369" s="1">
-        <v>0.03340537</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+        <v>3.3405369999999997E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -5604,10 +5690,10 @@
         <v>24068</v>
       </c>
       <c r="C370" s="1">
-        <v>0.03494618</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>3.494618E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -5615,10 +5701,10 @@
         <v>381290</v>
       </c>
       <c r="C371" s="1">
-        <v>0.03494618</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+        <v>3.494618E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -5626,10 +5712,10 @@
         <v>242521</v>
       </c>
       <c r="C372" s="1">
-        <v>0.03494618</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>3.494618E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -5637,10 +5723,10 @@
         <v>23994</v>
       </c>
       <c r="C373" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -5648,10 +5734,10 @@
         <v>268741</v>
       </c>
       <c r="C374" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -5659,10 +5745,10 @@
         <v>66977</v>
       </c>
       <c r="C375" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -5670,10 +5756,10 @@
         <v>56045</v>
       </c>
       <c r="C376" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -5681,10 +5767,10 @@
         <v>76799</v>
       </c>
       <c r="C377" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -5692,10 +5778,10 @@
         <v>20226</v>
       </c>
       <c r="C378" s="1">
-        <v>0.03655492</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+        <v>3.6554919999999998E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -5703,10 +5789,10 @@
         <v>56700</v>
       </c>
       <c r="C379" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -5714,10 +5800,10 @@
         <v>64138</v>
       </c>
       <c r="C380" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -5725,10 +5811,10 @@
         <v>56433</v>
       </c>
       <c r="C381" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -5736,10 +5822,10 @@
         <v>80795</v>
       </c>
       <c r="C382" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -5747,10 +5833,10 @@
         <v>12238</v>
       </c>
       <c r="C383" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -5758,10 +5844,10 @@
         <v>66075</v>
       </c>
       <c r="C384" s="1">
-        <v>0.03823444</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+        <v>3.8234440000000001E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -5769,10 +5855,10 @@
         <v>11821</v>
       </c>
       <c r="C385" s="1">
-        <v>0.04181776</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <v>4.1817760000000002E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -5780,10 +5866,10 @@
         <v>13723</v>
       </c>
       <c r="C386" s="1">
-        <v>0.04181776</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <v>4.1817760000000002E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -5791,10 +5877,10 @@
         <v>72900</v>
       </c>
       <c r="C387" s="1">
-        <v>0.04181776</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>4.1817760000000002E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -5802,19 +5888,21 @@
         <v>17748</v>
       </c>
       <c r="C388" s="1">
-        <v>0.04372782</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>4.3727820000000001E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B389" s="1"/>
+      <c r="B389" s="1">
+        <v>75410</v>
+      </c>
       <c r="C389" s="1">
-        <v>0.04372782</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>4.3727820000000001E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -5822,10 +5910,10 @@
         <v>12453</v>
       </c>
       <c r="C390" s="1">
-        <v>0.04372782</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>4.3727820000000001E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -5833,10 +5921,10 @@
         <v>72289</v>
       </c>
       <c r="C391" s="1">
-        <v>0.04372782</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>4.3727820000000001E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -5844,10 +5932,10 @@
         <v>73834</v>
       </c>
       <c r="C392" s="1">
-        <v>0.0457212</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>4.5721199999999997E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -5855,10 +5943,10 @@
         <v>20658</v>
       </c>
       <c r="C393" s="1">
-        <v>0.0457212</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>4.5721199999999997E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -5866,10 +5954,10 @@
         <v>14688</v>
       </c>
       <c r="C394" s="1">
-        <v>0.0457212</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+        <v>4.5721199999999997E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -5877,10 +5965,10 @@
         <v>20193</v>
       </c>
       <c r="C395" s="1">
-        <v>0.04780136</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
+        <v>4.7801360000000001E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -5888,10 +5976,10 @@
         <v>67160</v>
       </c>
       <c r="C396" s="1">
-        <v>0.04780136</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <v>4.7801360000000001E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -5899,10 +5987,10 @@
         <v>11799</v>
       </c>
       <c r="C397" s="1">
-        <v>0.04997186</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
+        <v>4.997186E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -5910,10 +5998,10 @@
         <v>18458</v>
       </c>
       <c r="C398" s="1">
-        <v>0.04997186</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <v>4.997186E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -5921,10 +6009,10 @@
         <v>109108</v>
       </c>
       <c r="C399" s="1">
-        <v>0.04997186</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <v>4.997186E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -5932,10 +6020,10 @@
         <v>69742</v>
       </c>
       <c r="C400" s="1">
-        <v>0.04997186</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
+        <v>4.997186E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -5943,10 +6031,11 @@
         <v>70350</v>
       </c>
       <c r="C401" s="1">
-        <v>0.04997186</v>
+        <v>4.997186E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>